--- a/Mission Summary.xlsx
+++ b/Mission Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\question-server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449E9C23-34FC-49EE-B448-6139CD04BE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282F5764-8550-46DF-BF67-F296934EE2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7F72EED9-DB52-4012-A342-289C5A9E257E}"/>
   </bookViews>
@@ -254,27 +254,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -639,39 +632,39 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2</v>
-      </c>
-      <c r="D2" s="6">
-        <v>3</v>
-      </c>
-      <c r="E2" s="6">
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
         <v>4</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="3">
         <v>6</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="3" t="s">
         <v>48</v>
       </c>
     </row>
@@ -679,21 +672,21 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>1</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6">
         <v>5</v>
       </c>
     </row>
@@ -701,17 +694,17 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7">
-        <v>2</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7">
-        <v>1</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>2</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6">
+        <v>1</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6">
         <v>3</v>
       </c>
     </row>
@@ -719,21 +712,21 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7">
-        <v>2</v>
-      </c>
-      <c r="G5" s="7">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>2</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6">
         <v>5</v>
       </c>
     </row>
@@ -741,25 +734,25 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7">
-        <v>2</v>
-      </c>
-      <c r="C6" s="7">
-        <v>2</v>
-      </c>
-      <c r="D6" s="7">
-        <v>2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>1</v>
-      </c>
-      <c r="F6" s="7">
-        <v>2</v>
-      </c>
-      <c r="G6" s="7">
-        <v>1</v>
-      </c>
-      <c r="H6" s="7">
+      <c r="B6" s="6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
         <v>10</v>
       </c>
     </row>
@@ -767,19 +760,19 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1</v>
-      </c>
-      <c r="H7" s="7">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
         <v>3</v>
       </c>
     </row>
@@ -787,19 +780,19 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7">
-        <v>1</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6">
         <v>3</v>
       </c>
     </row>
@@ -807,25 +800,25 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="7">
-        <v>1</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1</v>
-      </c>
-      <c r="E9" s="7">
-        <v>2</v>
-      </c>
-      <c r="F9" s="7">
-        <v>1</v>
-      </c>
-      <c r="G9" s="7">
-        <v>1</v>
-      </c>
-      <c r="H9" s="7">
+      <c r="B9" s="6">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
         <v>7</v>
       </c>
     </row>
@@ -833,23 +826,23 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1</v>
-      </c>
-      <c r="E10" s="7">
-        <v>3</v>
-      </c>
-      <c r="F10" s="7">
-        <v>3</v>
-      </c>
-      <c r="G10" s="7">
-        <v>3</v>
-      </c>
-      <c r="H10" s="7">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3</v>
+      </c>
+      <c r="G10" s="6">
+        <v>3</v>
+      </c>
+      <c r="H10" s="6">
         <v>11</v>
       </c>
     </row>
@@ -857,25 +850,25 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="7">
-        <v>3</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="E11" s="7">
-        <v>3</v>
-      </c>
-      <c r="F11" s="7">
-        <v>2</v>
-      </c>
-      <c r="G11" s="7">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7">
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1</v>
+      </c>
+      <c r="D11" s="6">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3</v>
+      </c>
+      <c r="F11" s="6">
+        <v>2</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
         <v>12</v>
       </c>
     </row>
@@ -883,19 +876,19 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7">
-        <v>1</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1</v>
-      </c>
-      <c r="E12" s="7">
-        <v>1</v>
-      </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6">
+        <v>1</v>
+      </c>
+      <c r="D12" s="6">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6">
         <v>3</v>
       </c>
     </row>
@@ -903,21 +896,21 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7">
-        <v>1</v>
-      </c>
-      <c r="E13" s="7">
-        <v>1</v>
-      </c>
-      <c r="F13" s="7">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7">
-        <v>2</v>
-      </c>
-      <c r="H13" s="7">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6">
         <v>5</v>
       </c>
     </row>
@@ -925,21 +918,21 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="7">
-        <v>1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7">
-        <v>2</v>
-      </c>
-      <c r="H14" s="7">
+      <c r="B14" s="6">
+        <v>1</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6">
         <v>5</v>
       </c>
     </row>
@@ -947,23 +940,23 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7">
-        <v>3</v>
-      </c>
-      <c r="F15" s="7">
+      <c r="B15" s="6"/>
+      <c r="C15" s="6">
+        <v>1</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
         <v>4</v>
       </c>
-      <c r="G15" s="7">
-        <v>3</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="G15" s="6">
+        <v>3</v>
+      </c>
+      <c r="H15" s="6">
         <v>12</v>
       </c>
     </row>
@@ -971,15 +964,15 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7">
-        <v>1</v>
-      </c>
-      <c r="H16" s="7">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6">
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
         <v>1</v>
       </c>
     </row>
@@ -987,17 +980,17 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7">
-        <v>2</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7">
-        <v>1</v>
-      </c>
-      <c r="H17" s="7">
+      <c r="B17" s="6"/>
+      <c r="C17" s="6">
+        <v>2</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1005,21 +998,21 @@
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7">
+      <c r="B18" s="6">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1027,23 +1020,23 @@
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1</v>
-      </c>
-      <c r="F19" s="7">
-        <v>1</v>
-      </c>
-      <c r="G19" s="7">
-        <v>1</v>
-      </c>
-      <c r="H19" s="7">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6">
+        <v>3</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
         <v>7</v>
       </c>
     </row>
@@ -1051,19 +1044,19 @@
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7">
-        <v>1</v>
-      </c>
-      <c r="H20" s="7">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1071,23 +1064,23 @@
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7">
-        <v>1</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7">
-        <v>1</v>
-      </c>
-      <c r="G21" s="7">
-        <v>1</v>
-      </c>
-      <c r="H21" s="7">
+      <c r="B21" s="6"/>
+      <c r="C21" s="6">
+        <v>1</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1095,25 +1088,25 @@
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="7">
-        <v>2</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="6">
+        <v>2</v>
+      </c>
+      <c r="C22" s="6">
         <v>4</v>
       </c>
-      <c r="D22" s="7">
-        <v>3</v>
-      </c>
-      <c r="E22" s="7">
-        <v>3</v>
-      </c>
-      <c r="F22" s="7">
+      <c r="D22" s="6">
+        <v>3</v>
+      </c>
+      <c r="E22" s="6">
+        <v>3</v>
+      </c>
+      <c r="F22" s="6">
         <v>4</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="6">
         <v>5</v>
       </c>
-      <c r="H22" s="7">
+      <c r="H22" s="6">
         <v>21</v>
       </c>
     </row>
@@ -1121,23 +1114,23 @@
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="7">
-        <v>2</v>
-      </c>
-      <c r="C23" s="7">
-        <v>2</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7">
-        <v>2</v>
-      </c>
-      <c r="H23" s="7">
+      <c r="B23" s="6">
+        <v>2</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>1</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6">
+        <v>2</v>
+      </c>
+      <c r="H23" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1145,23 +1138,23 @@
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1</v>
-      </c>
-      <c r="E24" s="7">
-        <v>2</v>
-      </c>
-      <c r="F24" s="7">
-        <v>2</v>
-      </c>
-      <c r="G24" s="7">
-        <v>2</v>
-      </c>
-      <c r="H24" s="7">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6">
+        <v>1</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="6">
+        <v>2</v>
+      </c>
+      <c r="F24" s="6">
+        <v>2</v>
+      </c>
+      <c r="G24" s="6">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1169,23 +1162,23 @@
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="7">
-        <v>1</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2</v>
-      </c>
-      <c r="E25" s="7">
-        <v>2</v>
-      </c>
-      <c r="F25" s="7">
-        <v>1</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7">
+      <c r="B25" s="6">
+        <v>1</v>
+      </c>
+      <c r="C25" s="6">
+        <v>2</v>
+      </c>
+      <c r="D25" s="6">
+        <v>2</v>
+      </c>
+      <c r="E25" s="6">
+        <v>2</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1193,17 +1186,17 @@
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
-        <v>1</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6">
         <v>5</v>
       </c>
-      <c r="H26" s="7">
+      <c r="H26" s="6">
         <v>6</v>
       </c>
     </row>
@@ -1211,17 +1204,17 @@
       <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7">
-        <v>1</v>
-      </c>
-      <c r="G27" s="7">
-        <v>3</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6">
+        <v>1</v>
+      </c>
+      <c r="G27" s="6">
+        <v>3</v>
+      </c>
+      <c r="H27" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1229,17 +1222,17 @@
       <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="7">
-        <v>1</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7">
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
         <v>2</v>
       </c>
     </row>
@@ -1247,15 +1240,15 @@
       <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7">
-        <v>1</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6">
+        <v>1</v>
+      </c>
+      <c r="H29" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1263,15 +1256,15 @@
       <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6">
+        <v>1</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1279,17 +1272,17 @@
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7">
-        <v>2</v>
-      </c>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7">
-        <v>1</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6">
+        <v>1</v>
+      </c>
+      <c r="H31" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1297,25 +1290,25 @@
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="7">
-        <v>1</v>
-      </c>
-      <c r="C32" s="7">
-        <v>2</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1</v>
-      </c>
-      <c r="F32" s="7">
-        <v>1</v>
-      </c>
-      <c r="G32" s="7">
-        <v>2</v>
-      </c>
-      <c r="H32" s="7">
+      <c r="B32" s="6">
+        <v>1</v>
+      </c>
+      <c r="C32" s="6">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6">
+        <v>1</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1</v>
+      </c>
+      <c r="F32" s="6">
+        <v>1</v>
+      </c>
+      <c r="G32" s="6">
+        <v>2</v>
+      </c>
+      <c r="H32" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1323,19 +1316,19 @@
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7">
-        <v>1</v>
-      </c>
-      <c r="E33" s="7">
-        <v>2</v>
-      </c>
-      <c r="F33" s="7">
-        <v>2</v>
-      </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+      <c r="F33" s="6">
+        <v>2</v>
+      </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1343,25 +1336,25 @@
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="7">
-        <v>1</v>
-      </c>
-      <c r="C34" s="7">
-        <v>1</v>
-      </c>
-      <c r="D34" s="7">
-        <v>1</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="7">
-        <v>3</v>
-      </c>
-      <c r="G34" s="7">
-        <v>2</v>
-      </c>
-      <c r="H34" s="7">
+      <c r="B34" s="6">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6">
+        <v>1</v>
+      </c>
+      <c r="D34" s="6">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3</v>
+      </c>
+      <c r="G34" s="6">
+        <v>2</v>
+      </c>
+      <c r="H34" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1369,23 +1362,23 @@
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1</v>
-      </c>
-      <c r="F35" s="7">
-        <v>1</v>
-      </c>
-      <c r="G35" s="7">
-        <v>1</v>
-      </c>
-      <c r="H35" s="7">
+      <c r="B35" s="6"/>
+      <c r="C35" s="6">
+        <v>1</v>
+      </c>
+      <c r="D35" s="6">
+        <v>1</v>
+      </c>
+      <c r="E35" s="6">
+        <v>1</v>
+      </c>
+      <c r="F35" s="6">
+        <v>1</v>
+      </c>
+      <c r="G35" s="6">
+        <v>1</v>
+      </c>
+      <c r="H35" s="6">
         <v>5</v>
       </c>
     </row>
@@ -1393,19 +1386,19 @@
       <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7">
-        <v>1</v>
-      </c>
-      <c r="F36" s="7">
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6">
+        <v>1</v>
+      </c>
+      <c r="F36" s="6">
         <v>4</v>
       </c>
-      <c r="G36" s="7">
-        <v>3</v>
-      </c>
-      <c r="H36" s="7">
+      <c r="G36" s="6">
+        <v>3</v>
+      </c>
+      <c r="H36" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1413,15 +1406,15 @@
       <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7">
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6">
         <v>4</v>
       </c>
-      <c r="H37" s="7">
+      <c r="H37" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1429,25 +1422,25 @@
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="7">
-        <v>1</v>
-      </c>
-      <c r="C38" s="7">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
-        <v>2</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1</v>
-      </c>
-      <c r="F38" s="7">
-        <v>2</v>
-      </c>
-      <c r="G38" s="7">
-        <v>1</v>
-      </c>
-      <c r="H38" s="7">
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+      <c r="C38" s="6">
+        <v>1</v>
+      </c>
+      <c r="D38" s="6">
+        <v>2</v>
+      </c>
+      <c r="E38" s="6">
+        <v>1</v>
+      </c>
+      <c r="F38" s="6">
+        <v>2</v>
+      </c>
+      <c r="G38" s="6">
+        <v>1</v>
+      </c>
+      <c r="H38" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1455,23 +1448,23 @@
       <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="7">
-        <v>2</v>
-      </c>
-      <c r="C39" s="7">
-        <v>1</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1</v>
-      </c>
-      <c r="F39" s="7">
-        <v>1</v>
-      </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7">
+      <c r="B39" s="6">
+        <v>2</v>
+      </c>
+      <c r="C39" s="6">
+        <v>1</v>
+      </c>
+      <c r="D39" s="6">
+        <v>3</v>
+      </c>
+      <c r="E39" s="6">
+        <v>1</v>
+      </c>
+      <c r="F39" s="6">
+        <v>1</v>
+      </c>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1479,19 +1472,19 @@
       <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7">
-        <v>2</v>
-      </c>
-      <c r="F40" s="7">
-        <v>2</v>
-      </c>
-      <c r="G40" s="7">
-        <v>2</v>
-      </c>
-      <c r="H40" s="7">
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <v>2</v>
+      </c>
+      <c r="F40" s="6">
+        <v>2</v>
+      </c>
+      <c r="G40" s="6">
+        <v>2</v>
+      </c>
+      <c r="H40" s="6">
         <v>6</v>
       </c>
     </row>
@@ -1499,19 +1492,19 @@
       <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7">
-        <v>1</v>
-      </c>
-      <c r="F41" s="7">
-        <v>1</v>
-      </c>
-      <c r="G41" s="7">
-        <v>1</v>
-      </c>
-      <c r="H41" s="7">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6">
+        <v>1</v>
+      </c>
+      <c r="F41" s="6">
+        <v>1</v>
+      </c>
+      <c r="G41" s="6">
+        <v>1</v>
+      </c>
+      <c r="H41" s="6">
         <v>3</v>
       </c>
     </row>
@@ -1519,15 +1512,15 @@
       <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7">
-        <v>1</v>
-      </c>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6">
         <v>1</v>
       </c>
     </row>
@@ -1535,21 +1528,21 @@
       <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7">
-        <v>1</v>
-      </c>
-      <c r="E43" s="7">
-        <v>1</v>
-      </c>
-      <c r="F43" s="7">
-        <v>1</v>
-      </c>
-      <c r="G43" s="7">
-        <v>1</v>
-      </c>
-      <c r="H43" s="7">
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6">
+        <v>1</v>
+      </c>
+      <c r="E43" s="6">
+        <v>1</v>
+      </c>
+      <c r="F43" s="6">
+        <v>1</v>
+      </c>
+      <c r="G43" s="6">
+        <v>1</v>
+      </c>
+      <c r="H43" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1557,23 +1550,23 @@
       <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="7">
-        <v>2</v>
-      </c>
-      <c r="C44" s="7">
-        <v>2</v>
-      </c>
-      <c r="D44" s="7">
-        <v>2</v>
-      </c>
-      <c r="E44" s="7">
-        <v>2</v>
-      </c>
-      <c r="F44" s="7">
-        <v>1</v>
-      </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7">
+      <c r="B44" s="6">
+        <v>2</v>
+      </c>
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>2</v>
+      </c>
+      <c r="E44" s="6">
+        <v>2</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1581,23 +1574,23 @@
       <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7">
-        <v>1</v>
-      </c>
-      <c r="D45" s="7">
-        <v>1</v>
-      </c>
-      <c r="E45" s="7">
-        <v>2</v>
-      </c>
-      <c r="F45" s="7">
-        <v>2</v>
-      </c>
-      <c r="G45" s="7">
-        <v>2</v>
-      </c>
-      <c r="H45" s="7">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6">
+        <v>1</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="6">
+        <v>2</v>
+      </c>
+      <c r="F45" s="6">
+        <v>2</v>
+      </c>
+      <c r="G45" s="6">
+        <v>2</v>
+      </c>
+      <c r="H45" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1605,23 +1598,23 @@
       <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7">
-        <v>1</v>
-      </c>
-      <c r="E46" s="7">
-        <v>1</v>
-      </c>
-      <c r="F46" s="7">
-        <v>2</v>
-      </c>
-      <c r="G46" s="7">
-        <v>3</v>
-      </c>
-      <c r="H46" s="7">
+      <c r="B46" s="6"/>
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="6">
+        <v>1</v>
+      </c>
+      <c r="F46" s="6">
+        <v>2</v>
+      </c>
+      <c r="G46" s="6">
+        <v>3</v>
+      </c>
+      <c r="H46" s="6">
         <v>8</v>
       </c>
     </row>
@@ -1629,21 +1622,21 @@
       <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7">
-        <v>1</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7">
-        <v>1</v>
-      </c>
-      <c r="E47" s="7">
-        <v>1</v>
-      </c>
-      <c r="F47" s="7">
-        <v>1</v>
-      </c>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7">
+      <c r="B47" s="6">
+        <v>1</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6">
+        <v>1</v>
+      </c>
+      <c r="E47" s="6">
+        <v>1</v>
+      </c>
+      <c r="F47" s="6">
+        <v>1</v>
+      </c>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6">
         <v>4</v>
       </c>
     </row>
@@ -1651,25 +1644,25 @@
       <c r="A48" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="8">
+      <c r="B48" s="7">
         <v>22</v>
       </c>
-      <c r="C48" s="8">
+      <c r="C48" s="7">
         <v>38</v>
       </c>
-      <c r="D48" s="8">
+      <c r="D48" s="7">
         <v>40</v>
       </c>
-      <c r="E48" s="8">
+      <c r="E48" s="7">
         <v>50</v>
       </c>
-      <c r="F48" s="8">
+      <c r="F48" s="7">
         <v>54</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G48" s="7">
         <v>63</v>
       </c>
-      <c r="H48" s="8">
+      <c r="H48" s="7">
         <v>267</v>
       </c>
     </row>
@@ -1678,11 +1671,11 @@
     <mergeCell ref="B1:G1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:G47">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>""""""</formula>
-    </cfRule>
     <cfRule type="containsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(B3))=0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>""""""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
